--- a/Wine_Quality/outputs/train_40_test_60/depth_3/wq_train_40_test_60_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_3/wq_train_40_test_60_depth_3_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.5340909090909091</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.2454308093994778</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.3363148479427549</v>
       </c>
       <c r="E2" t="n">
-        <v>148</v>
+        <v>766</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8078175895765473</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9139028475711892</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8575919522162841</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2985</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5076628352490421</v>
+        <v>0.7953199887228644</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3459530026109661</v>
+        <v>0.9450586264656616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4114906832298137</v>
+        <v>0.8637477036129823</v>
       </c>
       <c r="E4" t="n">
-        <v>766</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7676327263400872</v>
+        <v>0.771736342651962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7676327263400872</v>
+        <v>0.771736342651962</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7676327263400872</v>
+        <v>0.771736342651962</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7676327263400872</v>
+        <v>0.771736342651962</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4384934749418631</v>
+        <v>0.4431369659379245</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4199519500607184</v>
+        <v>0.3968298119550465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4230275451486993</v>
+        <v>0.400020850518579</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7181854928665709</v>
+        <v>0.7138096441911738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7676327263400872</v>
+        <v>0.771736342651962</v>
       </c>
       <c r="D7" t="n">
-        <v>0.737397753454641</v>
+        <v>0.7273413872297774</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>

--- a/Wine_Quality/outputs/train_40_test_60/depth_3/wq_train_40_test_60_depth_3_report.xlsx
+++ b/Wine_Quality/outputs/train_40_test_60/depth_3/wq_train_40_test_60_depth_3_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5340909090909091</v>
+        <v>0.53</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2454308093994778</v>
+        <v>0.25</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3363148479427549</v>
+        <v>0.34</v>
       </c>
       <c r="E2" t="n">
         <v>766</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7953199887228644</v>
+        <v>0.8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9450586264656616</v>
+        <v>0.95</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8637477036129823</v>
+        <v>0.86</v>
       </c>
       <c r="E4" t="n">
         <v>2985</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.771736342651962</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.771736342651962</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.771736342651962</v>
+        <v>0.77</v>
       </c>
       <c r="E5" t="n">
-        <v>0.771736342651962</v>
+        <v>3899</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4431369659379245</v>
+        <v>0.44</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3968298119550465</v>
+        <v>0.4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.400020850518579</v>
+        <v>0.4</v>
       </c>
       <c r="E6" t="n">
         <v>3899</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7138096441911738</v>
+        <v>0.71</v>
       </c>
       <c r="C7" t="n">
-        <v>0.771736342651962</v>
+        <v>0.77</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7273413872297774</v>
+        <v>0.73</v>
       </c>
       <c r="E7" t="n">
         <v>3899</v>
